--- a/Input/BankingApps.xlsx
+++ b/Input/BankingApps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khalid/Desktop/BKG87/Monitoring_BankingApps/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4BA07-8008-7E49-8A6B-F5E6CCC07248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E84AAD-2794-CA41-87ED-64F07681ED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{6E16EB73-B912-4A4A-B648-478B1EE6BC44}"/>
   </bookViews>
